--- a/TombOfTheMask_clone-bin/map/map_1.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_1.xlsx
@@ -1,40 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SFML_TombOfTheMask_Clone\TombOfTheMask_clone-bin\map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18195" windowHeight="8040"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>첫번째 가시 인덱스 : 339</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 가시 인덱스 : 194</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -42,37 +81,58 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -262,1679 +322,1524 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="3.0"/>
+    <col min="1" max="30" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U1" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V1" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W1" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X1" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="S2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y2" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="P3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="S3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R4" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="R5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V5" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y6" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U7" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="V7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>17.0</v>
+        <v>2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>17</v>
       </c>
       <c r="T8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W8" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X8" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R10" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X10" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y10" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="S11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="X11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M12" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>17</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P13" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="S13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X13" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>17.0</v>
+        <v>17</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5">
+        <v>17</v>
       </c>
       <c r="O14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="S14" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="X14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>14.0</v>
+        <v>17</v>
+      </c>
+      <c r="M15" s="3">
+        <v>14</v>
       </c>
       <c r="N15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R15" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S15" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="T15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y15" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>14.0</v>
+        <v>17</v>
+      </c>
+      <c r="M16" s="3">
+        <v>14</v>
       </c>
       <c r="N16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y16" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>14.0</v>
+        <v>17</v>
+      </c>
+      <c r="M17" s="3">
+        <v>14</v>
       </c>
       <c r="N17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R17" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M18" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="S18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="W18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>17.0</v>
+        <v>17</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TombOfTheMask_clone-bin/map/map_1.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>첫번째 가시 인덱스 : 339</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28,12 +28,16 @@
     <t>두번째 가시 인덱스 : 194</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>17/18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,6 +69,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -114,6 +125,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -335,7 +347,7 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -343,7 +355,7 @@
     <col min="1" max="30" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>17</v>
       </c>
@@ -425,7 +437,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -507,7 +519,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -527,7 +539,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -589,7 +601,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -671,7 +683,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -739,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="W5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -753,7 +765,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -835,7 +847,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17</v>
       </c>
@@ -917,7 +929,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -972,8 +984,8 @@
       <c r="R8" s="2">
         <v>2</v>
       </c>
-      <c r="S8" s="5">
-        <v>17</v>
+      <c r="S8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="T8" s="1">
         <v>17</v>
@@ -999,7 +1011,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>17</v>
       </c>
@@ -1081,7 +1093,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2">
         <v>6</v>
@@ -1163,7 +1175,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>17</v>
       </c>
@@ -1245,7 +1257,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -1327,7 +1339,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -1409,7 +1421,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1449,8 +1461,8 @@
       <c r="M14" s="4">
         <v>2</v>
       </c>
-      <c r="N14" s="5">
-        <v>17</v>
+      <c r="N14" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="O14" s="1">
         <v>17</v>
@@ -1491,7 +1503,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1573,7 +1585,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1655,7 +1667,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1737,7 +1749,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>

--- a/TombOfTheMask_clone-bin/map/map_1.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
   <si>
     <t>첫번째 가시 인덱스 : 339</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,7 +29,156 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17/18</t>
+    <r>
+      <t>17/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/18/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/18/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은코인 : 78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 5</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -37,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,8 +227,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +260,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -117,15 +285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -344,15 +513,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="30" width="3" customWidth="1"/>
+    <col min="1" max="25" width="8.5703125" customWidth="1"/>
+    <col min="26" max="30" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
@@ -523,20 +693,20 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>17</v>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -583,8 +753,8 @@
       <c r="U3" s="2">
         <v>2</v>
       </c>
-      <c r="V3" s="1">
-        <v>17</v>
+      <c r="V3" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="W3" s="2">
         <v>3</v>
@@ -605,8 +775,8 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>17</v>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -623,26 +793,26 @@
       <c r="G4" s="1">
         <v>17</v>
       </c>
-      <c r="H4" s="1">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1">
-        <v>17</v>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="O4" s="2">
         <v>3</v>
@@ -665,8 +835,8 @@
       <c r="U4" s="2">
         <v>4</v>
       </c>
-      <c r="V4" s="1">
-        <v>17</v>
+      <c r="V4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="W4" s="2">
         <v>3</v>
@@ -687,8 +857,8 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>17</v>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
@@ -723,8 +893,8 @@
       <c r="M5" s="2">
         <v>6</v>
       </c>
-      <c r="N5" s="1">
-        <v>17</v>
+      <c r="N5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="O5" s="2">
         <v>5</v>
@@ -738,17 +908,17 @@
       <c r="R5" s="2">
         <v>2</v>
       </c>
-      <c r="S5" s="1">
-        <v>17</v>
-      </c>
-      <c r="T5" s="1">
-        <v>17</v>
-      </c>
-      <c r="U5" s="1">
-        <v>17</v>
-      </c>
-      <c r="V5" s="1">
-        <v>17</v>
+      <c r="S5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="W5" s="2">
         <v>5</v>
@@ -805,14 +975,14 @@
       <c r="M6" s="2">
         <v>4</v>
       </c>
-      <c r="N6" s="1">
-        <v>17</v>
-      </c>
-      <c r="O6" s="1">
-        <v>17</v>
-      </c>
-      <c r="P6" s="1">
-        <v>17</v>
+      <c r="N6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
@@ -820,23 +990,23 @@
       <c r="R6" s="2">
         <v>2</v>
       </c>
-      <c r="S6" s="1">
-        <v>17</v>
-      </c>
-      <c r="T6" s="1">
-        <v>17</v>
-      </c>
-      <c r="U6" s="1">
-        <v>17</v>
-      </c>
-      <c r="V6" s="1">
-        <v>17</v>
-      </c>
-      <c r="W6" s="1">
-        <v>17</v>
-      </c>
-      <c r="X6" s="1">
-        <v>17</v>
+      <c r="S6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="Y6" s="2">
         <v>3</v>
@@ -884,17 +1054,17 @@
       <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1">
-        <v>17</v>
-      </c>
-      <c r="O7" s="1">
-        <v>17</v>
-      </c>
-      <c r="P7" s="1">
-        <v>17</v>
+      <c r="M7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="Q7" s="2">
         <v>3</v>
@@ -902,8 +1072,8 @@
       <c r="R7" s="2">
         <v>2</v>
       </c>
-      <c r="S7" s="1">
-        <v>17</v>
+      <c r="S7" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="T7" s="1">
         <v>17</v>
@@ -917,8 +1087,8 @@
       <c r="W7" s="1">
         <v>17</v>
       </c>
-      <c r="X7" s="1">
-        <v>17</v>
+      <c r="X7" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="Y7" s="3">
         <v>15</v>
@@ -966,17 +1136,17 @@
       <c r="L8" s="2">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
-        <v>17</v>
-      </c>
-      <c r="N8" s="1">
-        <v>17</v>
-      </c>
-      <c r="O8" s="1">
-        <v>17</v>
-      </c>
-      <c r="P8" s="1">
-        <v>17</v>
+      <c r="M8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="Q8" s="2">
         <v>3</v>
@@ -984,23 +1154,23 @@
       <c r="R8" s="2">
         <v>2</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="1">
-        <v>17</v>
-      </c>
-      <c r="U8" s="1">
-        <v>17</v>
-      </c>
-      <c r="V8" s="1">
-        <v>17</v>
-      </c>
-      <c r="W8" s="1">
-        <v>17</v>
-      </c>
-      <c r="X8" s="1">
-        <v>17</v>
+      <c r="S8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="Y8" s="3">
         <v>15</v>
@@ -1048,14 +1218,14 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
-        <v>17</v>
-      </c>
-      <c r="N9" s="1">
-        <v>17</v>
-      </c>
-      <c r="O9" s="1">
-        <v>17</v>
+      <c r="M9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <v>7</v>
@@ -1066,14 +1236,14 @@
       <c r="R9" s="2">
         <v>2</v>
       </c>
-      <c r="S9" s="1">
-        <v>17</v>
-      </c>
-      <c r="T9" s="1">
-        <v>17</v>
-      </c>
-      <c r="U9" s="1">
-        <v>17</v>
+      <c r="S9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="V9" s="2">
         <v>7</v>
@@ -1130,14 +1300,14 @@
       <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
-        <v>17</v>
-      </c>
-      <c r="N10" s="1">
-        <v>17</v>
-      </c>
-      <c r="O10" s="1">
-        <v>17</v>
+      <c r="M10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P10" s="2">
         <v>3</v>
@@ -1154,8 +1324,8 @@
       <c r="T10" s="2">
         <v>6</v>
       </c>
-      <c r="U10" s="1">
-        <v>17</v>
+      <c r="U10" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="V10" s="2">
         <v>3</v>
@@ -1218,8 +1388,8 @@
       <c r="N11" s="2">
         <v>6</v>
       </c>
-      <c r="O11" s="1">
-        <v>17</v>
+      <c r="O11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P11" s="2">
         <v>3</v>
@@ -1236,8 +1406,8 @@
       <c r="T11" s="2">
         <v>2</v>
       </c>
-      <c r="U11" s="1">
-        <v>17</v>
+      <c r="U11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="V11" s="2">
         <v>5</v>
@@ -1300,8 +1470,8 @@
       <c r="N12" s="2">
         <v>4</v>
       </c>
-      <c r="O12" s="1">
-        <v>17</v>
+      <c r="O12" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P12" s="2">
         <v>3</v>
@@ -1318,11 +1488,11 @@
       <c r="T12" s="2">
         <v>4</v>
       </c>
-      <c r="U12" s="1">
-        <v>17</v>
-      </c>
-      <c r="V12" s="1">
-        <v>17</v>
+      <c r="U12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="W12" s="2">
         <v>3</v>
@@ -1379,11 +1549,11 @@
       <c r="M13" s="2">
         <v>2</v>
       </c>
-      <c r="N13" s="1">
-        <v>17</v>
-      </c>
-      <c r="O13" s="1">
-        <v>17</v>
+      <c r="N13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P13" s="2">
         <v>5</v>
@@ -1391,20 +1561,20 @@
       <c r="Q13" s="2">
         <v>4</v>
       </c>
-      <c r="R13" s="1">
-        <v>17</v>
-      </c>
-      <c r="S13" s="1">
-        <v>17</v>
-      </c>
-      <c r="T13" s="1">
-        <v>17</v>
-      </c>
-      <c r="U13" s="1">
-        <v>17</v>
-      </c>
-      <c r="V13" s="1">
-        <v>17</v>
+      <c r="R13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="W13" s="2">
         <v>3</v>
@@ -1461,20 +1631,20 @@
       <c r="M14" s="4">
         <v>2</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>17</v>
-      </c>
-      <c r="P14" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>17</v>
-      </c>
-      <c r="R14" s="1">
-        <v>17</v>
+      <c r="N14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="S14" s="2">
         <v>7</v>
@@ -1543,17 +1713,17 @@
       <c r="M15" s="3">
         <v>14</v>
       </c>
-      <c r="N15" s="1">
-        <v>17</v>
-      </c>
-      <c r="O15" s="1">
-        <v>17</v>
+      <c r="N15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P15" s="1">
         <v>17</v>
       </c>
-      <c r="Q15" s="1">
-        <v>17</v>
+      <c r="Q15" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="R15" s="2">
         <v>7</v>
@@ -1625,17 +1795,17 @@
       <c r="M16" s="3">
         <v>14</v>
       </c>
-      <c r="N16" s="1">
-        <v>17</v>
-      </c>
-      <c r="O16" s="1">
-        <v>17</v>
+      <c r="N16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="P16" s="1">
         <v>17</v>
       </c>
-      <c r="Q16" s="1">
-        <v>17</v>
+      <c r="Q16" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="R16" s="2">
         <v>3</v>
@@ -1707,17 +1877,17 @@
       <c r="M17" s="3">
         <v>14</v>
       </c>
-      <c r="N17" s="1">
-        <v>17</v>
-      </c>
-      <c r="O17" s="1">
-        <v>17</v>
-      </c>
-      <c r="P17" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>17</v>
+      <c r="N17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="R17" s="2">
         <v>3</v>
@@ -1840,13 +2010,23 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TombOfTheMask_clone-bin/map/map_1.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
   <si>
     <t>첫번째 가시 인덱스 : 339</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,6 +178,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 4,5</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -513,10 +529,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2029,6 +2045,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TombOfTheMask_clone-bin/map/map_1.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
   <si>
     <t>첫번째 가시 인덱스 : 339</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,14 @@
       </rPr>
       <t xml:space="preserve"> : 4,5</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17FA1:Y18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +540,7 @@
   <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -687,8 +695,8 @@
       <c r="U2" s="2">
         <v>2</v>
       </c>
-      <c r="V2" s="1">
-        <v>17</v>
+      <c r="V2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="W2" s="2">
         <v>3</v>
@@ -2008,8 +2016,8 @@
       <c r="X18" s="1">
         <v>17</v>
       </c>
-      <c r="Y18" s="1">
-        <v>17</v>
+      <c r="Y18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>

--- a/TombOfTheMask_clone-bin/map/map_1.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_1.xlsx
@@ -1,143 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SFML_TombOfTheMask_Clone\TombOfTheMask_clone-bin\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FAD591D-82CC-4753-99FE-1421E88FDD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18195" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18195" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
+  <si>
+    <t>17/26</t>
+  </si>
+  <si>
+    <t>17/23</t>
+  </si>
+  <si>
+    <t>17/24</t>
+  </si>
+  <si>
+    <t>17/22/24</t>
+  </si>
   <si>
     <t>첫번째 가시 인덱스 : 339</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>두번째 가시 인덱스 : 194</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/18/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/18/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,20 +111,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>17FA1:Y18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -310,15 +216,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -533,23 +439,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="25" width="8.5703125" customWidth="1"/>
     <col min="26" max="30" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.75">
       <c r="A1" s="1">
         <v>17</v>
       </c>
@@ -631,7 +537,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="12.75">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -696,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2">
         <v>3</v>
@@ -713,24 +619,24 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="12.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -778,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
         <v>3</v>
@@ -795,12 +701,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="12.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -818,25 +724,25 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>3</v>
@@ -860,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
         <v>3</v>
@@ -877,12 +783,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="12.75">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
@@ -918,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>5</v>
@@ -933,16 +839,16 @@
         <v>2</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
         <v>5</v>
@@ -959,7 +865,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="12.75">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -1000,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
@@ -1015,22 +921,22 @@
         <v>2</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2">
         <v>3</v>
@@ -1041,7 +947,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="12.75">
       <c r="A7" s="1">
         <v>17</v>
       </c>
@@ -1079,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>3</v>
@@ -1097,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>17</v>
@@ -1112,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="3">
         <v>15</v>
@@ -1123,7 +1029,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="12.75">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1161,16 +1067,16 @@
         <v>2</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>3</v>
@@ -1179,22 +1085,22 @@
         <v>2</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="3">
         <v>15</v>
@@ -1205,7 +1111,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="12.75">
       <c r="A9" s="1">
         <v>17</v>
       </c>
@@ -1243,13 +1149,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
         <v>7</v>
@@ -1261,13 +1167,13 @@
         <v>2</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" s="2">
         <v>7</v>
@@ -1287,7 +1193,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="12.75">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1325,13 +1231,13 @@
         <v>2</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
         <v>3</v>
@@ -1349,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2">
         <v>3</v>
@@ -1369,7 +1275,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="12.75">
       <c r="A11" s="1">
         <v>17</v>
       </c>
@@ -1413,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
         <v>3</v>
@@ -1431,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" s="2">
         <v>5</v>
@@ -1451,7 +1357,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="12.75">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -1495,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
         <v>3</v>
@@ -1513,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" s="2">
         <v>3</v>
@@ -1533,7 +1439,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="12.75">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -1574,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>5</v>
@@ -1586,19 +1492,19 @@
         <v>4</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" s="2">
         <v>3</v>
@@ -1615,7 +1521,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="12.75">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1656,19 +1562,19 @@
         <v>2</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" s="2">
         <v>7</v>
@@ -1697,7 +1603,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="12.75">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1738,16 +1644,16 @@
         <v>14</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>7</v>
@@ -1779,7 +1685,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="12.75">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1820,16 +1726,16 @@
         <v>14</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>3</v>
@@ -1861,7 +1767,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="12.75">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1902,16 +1808,16 @@
         <v>14</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
         <v>3</v>
@@ -1943,7 +1849,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="12.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2016,8 +1922,8 @@
       <c r="X18" s="1">
         <v>17</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>15</v>
+      <c r="Y18" s="1">
+        <v>17</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -2025,7 +1931,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="15.75" customHeight="1">
       <c r="Z19">
         <v>18</v>
       </c>
@@ -2033,29 +1939,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
